--- a/outputs-r202/f__UBA1390.xlsx
+++ b/outputs-r202/f__UBA1390.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__RUG760</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__RUG760</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -531,6 +541,11 @@
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>g__RUG159</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>g__RUG159</t>
         </is>

--- a/outputs-r202/f__UBA1390.xlsx
+++ b/outputs-r202/f__UBA1390.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG084.fasta</t>
+          <t>RUG159.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -494,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -507,45 +507,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__RUG760</t>
+          <t>g__RUG159</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>g__RUG760</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG159.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>g__RUG159</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>g__RUG159</t>
         </is>
